--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1015"/>
+  <dimension ref="A1:G943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24595,10 +24595,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G890" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -24632,10 +24630,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -24669,10 +24665,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G892" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="893">
@@ -24706,10 +24700,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -24743,10 +24735,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -24780,10 +24770,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -24817,10 +24805,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -24850,10 +24836,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -24887,10 +24871,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -24920,10 +24902,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -24957,10 +24937,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -24994,10 +24972,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -25031,10 +25007,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -25052,10 +25026,8 @@
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -25089,10 +25061,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -25122,10 +25092,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="906">
@@ -25155,10 +25123,8 @@
         </is>
       </c>
       <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -25180,10 +25146,8 @@
         </is>
       </c>
       <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -25213,10 +25177,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -25246,10 +25208,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -25275,10 +25235,8 @@
       </c>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -25304,10 +25262,8 @@
       </c>
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -25325,10 +25281,8 @@
       <c r="D912" t="inlineStr"/>
       <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G912" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="913">
@@ -25354,10 +25308,8 @@
       </c>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -25383,10 +25335,8 @@
       </c>
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -25404,65 +25354,71 @@
       <c r="D915" t="inlineStr"/>
       <c r="E915" t="inlineStr"/>
       <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B916" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMJAN</t>
+        </is>
+      </c>
       <c r="C916" t="inlineStr"/>
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01:45 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C917" t="inlineStr"/>
-      <c r="D917" t="inlineStr"/>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>-261Bcf</t>
+        </is>
+      </c>
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C918" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr"/>
       <c r="D918" t="inlineStr">
         <is>
-          <t>$6.78T</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E918" t="inlineStr"/>
@@ -25476,183 +25432,131 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C919" t="inlineStr"/>
-      <c r="D919" t="inlineStr"/>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E919" t="inlineStr"/>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>15-Year Mortgage RateMAR/06</t>
         </is>
       </c>
       <c r="C920" t="inlineStr"/>
       <c r="D920" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E920" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>5.94%</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>30-Year Mortgage RateMAR/06</t>
         </is>
       </c>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F921" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>6.76%</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr"/>
+      <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B922" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
+          <t>Friday March 07 2025</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr"/>
-      <c r="D922" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F922" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G922" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Fed Balance SheetMAR/05</t>
         </is>
       </c>
       <c r="C923" t="inlineStr"/>
       <c r="D923" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>$-114.7B</t>
-        </is>
-      </c>
-      <c r="F923" t="inlineStr">
-        <is>
-          <t>$ -116.0B</t>
-        </is>
-      </c>
+          <t>$6.77T</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr"/>
+      <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C924" t="inlineStr"/>
-      <c r="D924" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E924" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F924" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D924" t="inlineStr"/>
+      <c r="E924" t="inlineStr"/>
+      <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr">
         <is>
           <t>2</t>
@@ -25667,28 +25571,28 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Non Farm PayrollsFEB</t>
         </is>
       </c>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>143K</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>180.0K</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25700,24 +25604,28 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C926" t="inlineStr"/>
       <c r="D926" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E926" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25729,23 +25637,23 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -25762,56 +25670,48 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr"/>
       <c r="F928" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C929" t="inlineStr"/>
       <c r="D929" t="inlineStr">
         <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -25823,22 +25723,30 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C930" t="inlineStr"/>
       <c r="D930" t="inlineStr">
         <is>
-          <t>487</t>
-        </is>
-      </c>
-      <c r="E930" t="inlineStr"/>
-      <c r="F930" t="inlineStr"/>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>34.1</t>
+        </is>
+      </c>
       <c r="G930" t="inlineStr">
         <is>
           <t>3</t>
@@ -25848,22 +25756,26 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C931" t="inlineStr"/>
       <c r="D931" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>32K</t>
         </is>
       </c>
       <c r="E931" t="inlineStr"/>
-      <c r="F931" t="inlineStr"/>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>-20.0K</t>
+        </is>
+      </c>
       <c r="G931" t="inlineStr">
         <is>
           <t>3</t>
@@ -25873,143 +25785,151 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>Saturday March 01 2025</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsFEB</t>
+        </is>
+      </c>
       <c r="C932" t="inlineStr"/>
-      <c r="D932" t="inlineStr"/>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>3K</t>
+        </is>
+      </c>
       <c r="E932" t="inlineStr"/>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>6.0K</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B933" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateFEB</t>
+        </is>
+      </c>
       <c r="C933" t="inlineStr"/>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>108K</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>170.0K</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C934" t="inlineStr"/>
       <c r="D934" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E934" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr"/>
       <c r="F934" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:15 PM</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIFEB</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C935" t="inlineStr"/>
-      <c r="D935" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
+      <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
-      <c r="F935" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C936" t="inlineStr"/>
-      <c r="D936" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
-      <c r="F936" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Construction Spending MoMJAN</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C937" t="inlineStr"/>
-      <c r="D937" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D937" t="inlineStr"/>
       <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="F937" t="inlineStr"/>
       <c r="G937" t="inlineStr">
         <is>
           <t>3</t>
@@ -26017,28 +25937,20 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C938" t="inlineStr"/>
       <c r="D938" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E938" t="inlineStr"/>
-      <c r="F938" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
+      <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr">
         <is>
           <t>3</t>
@@ -26046,28 +25958,20 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A939" t="inlineStr"/>
       <c r="B939" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesFEB</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C939" t="inlineStr"/>
       <c r="D939" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E939" t="inlineStr"/>
-      <c r="F939" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+      <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr">
         <is>
           <t>3</t>
@@ -26077,47 +25981,39 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B940" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr"/>
       <c r="C940" t="inlineStr"/>
-      <c r="D940" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
+      <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr"/>
       <c r="D941" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E941" t="inlineStr"/>
-      <c r="F941" t="inlineStr"/>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>$ -3.0B</t>
+        </is>
+      </c>
       <c r="G941" t="inlineStr">
         <is>
           <t>3</t>
@@ -26127,28 +26023,20 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>10:05 PM</t>
-        </is>
-      </c>
-      <c r="B942" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Tuesday March 04 2025</t>
+          <t>Monday March 10 2025</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -26158,1854 +26046,6 @@
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
     </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C944" t="inlineStr"/>
-      <c r="D944" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E944" t="inlineStr"/>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B945" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C945" t="inlineStr"/>
-      <c r="D945" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E945" t="inlineStr"/>
-      <c r="F945" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B946" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C946" t="inlineStr"/>
-      <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr"/>
-      <c r="B947" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C947" t="inlineStr"/>
-      <c r="D947" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E947" t="inlineStr"/>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B948" t="inlineStr"/>
-      <c r="C948" t="inlineStr"/>
-      <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>12:50 AM</t>
-        </is>
-      </c>
-      <c r="B949" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C949" t="inlineStr"/>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B950" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C950" t="inlineStr"/>
-      <c r="D950" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E950" t="inlineStr"/>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B951" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C951" t="inlineStr"/>
-      <c r="D951" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E951" t="inlineStr"/>
-      <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C952" t="inlineStr"/>
-      <c r="D952" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E952" t="inlineStr"/>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C953" t="inlineStr"/>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E953" t="inlineStr"/>
-      <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B954" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C954" t="inlineStr"/>
-      <c r="D954" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E954" t="inlineStr"/>
-      <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B955" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C955" t="inlineStr"/>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B956" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C956" t="inlineStr"/>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E956" t="inlineStr"/>
-      <c r="F956" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C957" t="inlineStr"/>
-      <c r="D957" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E957" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F957" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C958" t="inlineStr"/>
-      <c r="D958" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E958" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F958" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B959" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C959" t="inlineStr"/>
-      <c r="D959" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E959" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F959" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B960" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C960" t="inlineStr"/>
-      <c r="D960" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E960" t="inlineStr"/>
-      <c r="F960" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr"/>
-      <c r="D961" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr"/>
-      <c r="D962" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E962" t="inlineStr"/>
-      <c r="F962" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B963" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C963" t="inlineStr"/>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E963" t="inlineStr"/>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr"/>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E964" t="inlineStr"/>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr"/>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr"/>
-      <c r="F965" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B966" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C966" t="inlineStr"/>
-      <c r="D966" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E966" t="inlineStr"/>
-      <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B967" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C967" t="inlineStr"/>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E967" t="inlineStr"/>
-      <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B968" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C968" t="inlineStr"/>
-      <c r="D968" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E968" t="inlineStr"/>
-      <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B969" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C969" t="inlineStr"/>
-      <c r="D969" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E969" t="inlineStr"/>
-      <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr"/>
-      <c r="D970" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E970" t="inlineStr"/>
-      <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C971" t="inlineStr"/>
-      <c r="D971" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E971" t="inlineStr"/>
-      <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B972" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C972" t="inlineStr"/>
-      <c r="D972" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E972" t="inlineStr"/>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr"/>
-      <c r="D973" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E973" t="inlineStr"/>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C974" t="inlineStr"/>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E974" t="inlineStr"/>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B975" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C975" t="inlineStr"/>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E975" t="inlineStr"/>
-      <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr"/>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr"/>
-      <c r="D976" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E976" t="inlineStr"/>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr"/>
-      <c r="C977" t="inlineStr"/>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr"/>
-      <c r="D978" t="inlineStr"/>
-      <c r="E978" t="inlineStr"/>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr"/>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E979" t="inlineStr"/>
-      <c r="F979" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr"/>
-      <c r="D980" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E980" t="inlineStr"/>
-      <c r="F980" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr"/>
-      <c r="D981" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E981" t="inlineStr"/>
-      <c r="F981" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr"/>
-      <c r="D982" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E982" t="inlineStr"/>
-      <c r="F982" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr"/>
-      <c r="D983" t="inlineStr">
-        <is>
-          <t>242K</t>
-        </is>
-      </c>
-      <c r="E983" t="inlineStr"/>
-      <c r="F983" t="inlineStr">
-        <is>
-          <t>250.0K</t>
-        </is>
-      </c>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr"/>
-      <c r="D984" t="inlineStr">
-        <is>
-          <t>1862K</t>
-        </is>
-      </c>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr"/>
-      <c r="D985" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
-      <c r="E985" t="inlineStr"/>
-      <c r="F985" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr"/>
-      <c r="D986" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E986" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F986" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr"/>
-      <c r="D987" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E987" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F987" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr"/>
-      <c r="D988" t="inlineStr"/>
-      <c r="E988" t="inlineStr"/>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr"/>
-      <c r="D989" t="inlineStr">
-        <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E989" t="inlineStr"/>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr"/>
-      <c r="D990" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E990" t="inlineStr"/>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr"/>
-      <c r="D991" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E991" t="inlineStr"/>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr"/>
-      <c r="D992" t="inlineStr">
-        <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr"/>
-      <c r="D993" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr"/>
-      <c r="C994" t="inlineStr"/>
-      <c r="D994" t="inlineStr"/>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr"/>
-      <c r="D995" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr"/>
-      <c r="D996" t="inlineStr"/>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr"/>
-      <c r="D997" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E997" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F997" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E998" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F998" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr"/>
-      <c r="D999" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr"/>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr"/>
-      <c r="D1001" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E1001" t="inlineStr"/>
-      <c r="F1001" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr"/>
-      <c r="D1002" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1002" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1002" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr"/>
-      <c r="D1003" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr"/>
-      <c r="D1004" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr"/>
-      <c r="D1005" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1005" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
-      <c r="F1005" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr"/>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>09:15 PM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
-      <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
-      <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
-      <c r="G1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr"/>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr"/>
-      <c r="D1010" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1010" t="inlineStr"/>
-      <c r="F1010" t="inlineStr"/>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr"/>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr"/>
-      <c r="F1011" t="inlineStr"/>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr"/>
-      <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr"/>
-      <c r="E1012" t="inlineStr"/>
-      <c r="F1012" t="inlineStr"/>
-      <c r="G1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr"/>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr"/>
-      <c r="C1014" t="inlineStr"/>
-      <c r="D1014" t="inlineStr"/>
-      <c r="E1014" t="inlineStr"/>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr"/>
-      <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr"/>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr"/>
-      <c r="G1015" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1021"/>
+  <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27562,79 +27562,67 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr"/>
-      <c r="D1001" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
+      <c r="D1001" t="inlineStr"/>
       <c r="E1001" t="inlineStr"/>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Fed Balance SheetMAR/05</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr"/>
-      <c r="D1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>$6.77T</t>
+        </is>
+      </c>
       <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr"/>
-      <c r="D1003" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1003" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F1003" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27646,23 +27634,23 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>Non Farm PayrollsFEB</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr"/>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>143K</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>180.0K</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -27679,28 +27667,28 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27712,19 +27700,23 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr"/>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1006" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -27741,19 +27733,19 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr"/>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="E1007" t="inlineStr"/>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -27770,28 +27762,24 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr"/>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27803,19 +27791,23 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E1009" t="inlineStr"/>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>-20.0K</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -27832,19 +27824,19 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>3K</t>
+          <t>32K</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -27861,23 +27853,19 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -27894,19 +27882,23 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr"/>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>108K</t>
+        </is>
+      </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -27918,33 +27910,41 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="E1013" t="inlineStr"/>
-      <c r="F1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
@@ -27953,19 +27953,19 @@
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:15 PM</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr"/>
@@ -27974,88 +27974,88 @@
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" t="inlineStr"/>
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>10:50 PM</t>
+        </is>
+      </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="inlineStr"/>
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYFEB</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D1017" t="inlineStr"/>
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr"/>
       <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
-      <c r="D1019" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
+      <c r="D1019" t="inlineStr"/>
       <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
+      <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr">
         <is>
           <t>3</t>
@@ -28065,28 +28065,133 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
+        </is>
+      </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr"/>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr"/>
+      <c r="A1021" t="inlineStr"/>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMFEB</t>
+        </is>
+      </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
       <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr"/>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYFEB</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeJAN</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>$40.85B</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr"/>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>$ -3.0B</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="inlineStr"/>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Monday March 10 2025</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="inlineStr"/>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -26028,7 +26028,11 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="E941" t="inlineStr"/>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F941" t="inlineStr">
         <is>
           <t>51</t>
@@ -27412,7 +27416,11 @@
         </is>
       </c>
       <c r="C994" t="inlineStr"/>
-      <c r="D994" t="inlineStr"/>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="E994" t="inlineStr"/>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -25587,7 +25587,11 @@
           <t>Core PCE Price Index MoMJAN</t>
         </is>
       </c>
-      <c r="C926" t="inlineStr"/>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D926" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -25620,7 +25624,11 @@
           <t>Personal Income MoMJAN</t>
         </is>
       </c>
-      <c r="C927" t="inlineStr"/>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="D927" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -25653,10 +25661,14 @@
           <t>Personal Spending MoMJAN</t>
         </is>
       </c>
-      <c r="C928" t="inlineStr"/>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
@@ -25686,10 +25698,14 @@
           <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
-      <c r="C929" t="inlineStr"/>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>$-153.26B</t>
+        </is>
+      </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>$-122.01B</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
@@ -25719,7 +25735,11 @@
           <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
-      <c r="C930" t="inlineStr"/>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D930" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -25752,7 +25772,11 @@
           <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
-      <c r="C931" t="inlineStr"/>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="D931" t="inlineStr">
         <is>
           <t>2.6%</t>
@@ -25785,7 +25809,11 @@
           <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
-      <c r="C932" t="inlineStr"/>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="D932" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -25814,10 +25842,14 @@
           <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
-      <c r="C933" t="inlineStr"/>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
@@ -25847,10 +25879,14 @@
           <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
-      <c r="C934" t="inlineStr"/>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
@@ -27422,7 +27458,11 @@
         </is>
       </c>
       <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G994" t="inlineStr">
         <is>
           <t>3</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1026"/>
+  <dimension ref="A1:G1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25916,7 +25916,11 @@
           <t>Chicago PMIFEB</t>
         </is>
       </c>
-      <c r="C935" t="inlineStr"/>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
       <c r="D935" t="inlineStr">
         <is>
           <t>39.5</t>
@@ -26126,7 +26130,11 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="E943" t="inlineStr"/>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F943" t="inlineStr">
         <is>
           <t>0.6%</t>
@@ -26581,7 +26589,11 @@
           <t>183K</t>
         </is>
       </c>
-      <c r="E962" t="inlineStr"/>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="F962" t="inlineStr">
         <is>
           <t>200.0K</t>
@@ -26709,7 +26721,11 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="E966" t="inlineStr"/>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F966" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -27220,7 +27236,7 @@
       <c r="E986" t="inlineStr"/>
       <c r="F986" t="inlineStr">
         <is>
-          <t>$-103B</t>
+          <t>$-123B</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -27278,7 +27294,7 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr">
         <is>
-          <t>$376.0B</t>
+          <t>$396.0B</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -27304,7 +27320,11 @@
           <t>242K</t>
         </is>
       </c>
-      <c r="E989" t="inlineStr"/>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>340K</t>
+        </is>
+      </c>
       <c r="F989" t="inlineStr">
         <is>
           <t>250.0K</t>
@@ -27790,7 +27810,11 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="E1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="F1007" t="inlineStr">
         <is>
           <t>4.1%</t>
@@ -28203,7 +28227,11 @@
           <t>$40.85B</t>
         </is>
       </c>
-      <c r="E1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>$15.5B</t>
+        </is>
+      </c>
       <c r="F1024" t="inlineStr">
         <is>
           <t>$ -3.0B</t>
@@ -28241,6 +28269,35 @@
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
     </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsFEB</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr"/>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -26137,7 +26137,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -26330,7 +26330,11 @@
           <t>52</t>
         </is>
       </c>
-      <c r="E951" t="inlineStr"/>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>53.1</t>
+        </is>
+      </c>
       <c r="F951" t="inlineStr">
         <is>
           <t>53</t>
@@ -26596,7 +26600,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>200.0K</t>
+          <t>160.0K</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -26728,7 +26732,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -27718,7 +27722,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>180.0K</t>
+          <t>150.0K</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1027"/>
+  <dimension ref="A1:G1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28302,6 +28302,48 @@
         </is>
       </c>
     </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="inlineStr"/>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr"/>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-10.xlsx
@@ -25953,10 +25953,14 @@
           <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
-      <c r="C936" t="inlineStr"/>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>488</t>
         </is>
       </c>
       <c r="E936" t="inlineStr"/>
@@ -25978,7 +25982,11 @@
           <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
-      <c r="C937" t="inlineStr"/>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
       <c r="D937" t="inlineStr">
         <is>
           <t>592</t>
@@ -28129,7 +28137,11 @@
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
-      <c r="D1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr">
@@ -28150,7 +28162,11 @@
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
-      <c r="D1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr">
